--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/20/seed5/result_data_KNN.xlsx
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.422000000000001</v>
+        <v>-8.396000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.134</v>
+        <v>-8.038</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -692,7 +692,7 @@
         <v>-10.67</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.456</v>
+        <v>-7.950999999999999</v>
       </c>
       <c r="E15" t="n">
         <v>14.11</v>
